--- a/Data/Wireless EMG data 1.xlsx
+++ b/Data/Wireless EMG data 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferrerx\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferrerx\Documents\GitHub\Wireless_EMG\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9189"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5149,23 +5149,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E630"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.3046875" style="4" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="3"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1.7</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1.7</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>1.69</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>1.69</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>1.68</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1.69</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>1.68</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>1.68</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>1.69</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>1.69</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>1.71</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>1.7</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>1.71</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>1.69</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>1.69</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>1.69</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>1.69</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>1.69</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>1.68</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>1.68</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>1.69</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>1.69</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>1.7</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>1.68</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>1.69</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>1.68</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>1.68</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>1.69</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>1.68</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>1.68</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>1.7</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>1.69</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>1.69</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>1.68</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>1.7</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>1.7</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>1.7</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>1.69</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>1.69</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>1.68</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>1.68</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>1.68</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>1.68</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>1.68</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>1.68</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>1.69</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>1.7</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>1.7</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>1.7</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>1.68</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>1.68</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>1.68</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>1.68</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>1.69</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>1.69</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>1.68</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>1.69</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>1.68</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>1.69</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>1.69</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>1.69</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>1.69</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>1.69</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>1.69</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>1.69</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>1.68</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>1.69</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>1.69</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>1.69</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>1.69</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>1.68</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>1.69</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>1.69</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>1.68</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>1.69</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>1.68</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>1.69</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>1.69</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>1.69</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>1.69</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>1.69</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>1.7</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>1.69</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>1.68</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>1.69</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>1.69</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>1.68</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>1.69</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>1.69</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>1.68</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>1.69</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>1.68</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>1.68</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>1.69</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>1.69</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>1.69</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>1.69</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>1.68</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>1.66</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>1.74</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>1.73</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>1.7</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>1.66</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <v>1.52</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <v>1.83</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>1.23</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>1.82</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>1.46</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>1.6</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>1.62</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <v>1.73</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>1.84</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <v>1.56</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>1.82</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>1.75</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
         <v>1.74</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>1.67</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>1.68</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>1.69</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <v>1.69</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>1.69</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>1.65</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <v>1.69</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <v>1.68</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <v>1.67</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <v>1.69</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>1.68</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>1.69</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>1.69</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <v>1.68</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>1.69</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <v>1.69</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>1.69</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <v>1.68</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
         <v>1.67</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
         <v>1.72</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
         <v>1.64</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
         <v>1.67</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <v>1.56</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
         <v>1.71</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <v>1.48</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <v>1.79</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <v>1.58</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
         <v>1.7</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>1.71</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
         <v>1.76</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
         <v>1.55</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
         <v>2</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <v>1.71</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
         <v>1.64</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <v>1.53</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <v>1.72</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <v>1.56</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
         <v>1.68</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <v>1.45</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
         <v>1.7</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <v>1.69</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <v>1.7</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <v>1.68</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <v>1.68</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
         <v>1.68</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
         <v>1.68</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <v>1.69</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <v>1.68</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <v>1.68</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="2">
         <v>1.69</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <v>1.69</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="2">
         <v>1.69</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <v>1.68</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="2">
         <v>1.68</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="2">
         <v>1.69</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <v>1.69</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <v>1.69</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="2">
         <v>1.68</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <v>1.69</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
         <v>1.68</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="2">
         <v>1.68</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="2">
         <v>1.69</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="2">
         <v>1.68</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="2">
         <v>1.69</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="2">
         <v>1.68</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="2">
         <v>1.68</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="2">
         <v>1.69</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="2">
         <v>1.69</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="2">
         <v>1.68</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="2">
         <v>1.69</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="2">
         <v>1.69</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="2">
         <v>1.69</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="2">
         <v>1.69</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="2">
         <v>1.68</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="2">
         <v>1.68</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="2">
         <v>1.68</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="2">
         <v>1.68</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="2">
         <v>1.68</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="2">
         <v>1.68</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="2">
         <v>1.69</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="2">
         <v>1.69</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" s="2">
         <v>1.69</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="2">
         <v>1.69</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="2">
         <v>1.68</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202" s="2">
         <v>1.68</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203" s="2">
         <v>1.68</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204" s="2">
         <v>1.68</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205" s="2">
         <v>1.67</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206" s="2">
         <v>1.69</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207" s="2">
         <v>1.69</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208" s="2">
         <v>1.69</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209" s="2">
         <v>1.68</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210" s="2">
         <v>1.68</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211" s="2">
         <v>1.69</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212" s="2">
         <v>1.69</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213" s="2">
         <v>1.68</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214" s="2">
         <v>1.68</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215" s="2">
         <v>1.68</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216" s="2">
         <v>1.67</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217" s="2">
         <v>1.68</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218" s="2">
         <v>1.65</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219" s="2">
         <v>1.6</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220" s="2">
         <v>1.81</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221" s="2">
         <v>1.66</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222" s="2">
         <v>1.75</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A223" s="2">
         <v>1.58</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224" s="2">
         <v>1.48</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225" s="2">
         <v>1.6</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226" s="2">
         <v>1.8</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227" s="2">
         <v>1.68</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228" s="2">
         <v>1.61</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229" s="2">
         <v>1.8</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230" s="2">
         <v>1.75</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231" s="2">
         <v>1.72</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232" s="2">
         <v>1.51</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233" s="2">
         <v>1.52</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234" s="2">
         <v>1.89</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235" s="2">
         <v>1.77</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A236" s="2">
         <v>1.72</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237" s="2">
         <v>1.68</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238" s="2">
         <v>1.65</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239" s="2">
         <v>1.88</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240" s="2">
         <v>1.53</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241" s="2">
         <v>1.77</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A242" s="2">
         <v>1.67</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A243" s="2">
         <v>1.74</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A244" s="2">
         <v>1.75</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A245" s="2">
         <v>1.69</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A246" s="2">
         <v>1.47</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A247" s="2">
         <v>1.69</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A248" s="2">
         <v>1.71</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A249" s="2">
         <v>1.69</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A250" s="2">
         <v>1.69</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A251" s="2">
         <v>1.68</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A252" s="2">
         <v>1.69</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A253" s="2">
         <v>1.69</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A254" s="2">
         <v>1.68</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A255" s="2">
         <v>1.69</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A256" s="2">
         <v>1.7</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A257" s="2">
         <v>1.69</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A258" s="2">
         <v>1.69</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A259" s="2">
         <v>1.69</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A260" s="2">
         <v>1.68</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A261" s="2">
         <v>1.69</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A262" s="2">
         <v>1.68</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A263" s="2">
         <v>1.68</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A264" s="2">
         <v>1.69</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A265" s="2">
         <v>1.68</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A266" s="2">
         <v>1.69</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A267" s="2">
         <v>1.7</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A268" s="2">
         <v>1.69</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A269" s="2">
         <v>1.69</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A270" s="2">
         <v>1.69</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A271" s="2">
         <v>1.68</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A272" s="2">
         <v>1.69</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A273" s="2">
         <v>1.68</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A274" s="2">
         <v>1.69</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A275" s="2">
         <v>1.68</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A276" s="2">
         <v>1.68</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A277" s="2">
         <v>1.69</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A278" s="2">
         <v>1.69</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A279" s="2">
         <v>1.68</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A280" s="2">
         <v>1.69</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A281" s="2">
         <v>1.68</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A282" s="2">
         <v>1.69</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A283" s="2">
         <v>1.69</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A284" s="2">
         <v>1.68</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A285" s="2">
         <v>1.68</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A286" s="2">
         <v>1.69</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A287" s="2">
         <v>1.68</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A288" s="2">
         <v>1.69</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A289" s="2">
         <v>1.68</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A290" s="2">
         <v>1.69</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A291" s="2">
         <v>1.69</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A292" s="2">
         <v>1.67</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A293" s="2">
         <v>1.66</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A294" s="2">
         <v>1.7</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A295" s="2">
         <v>1.71</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A296" s="2">
         <v>1.67</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A297" s="2">
         <v>1.71</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A298" s="2">
         <v>1.49</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A299" s="2">
         <v>1.81</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A300" s="2">
         <v>1.77</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A301" s="2">
         <v>1.62</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A302" s="2">
         <v>1.79</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A303" s="2">
         <v>1.56</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A304" s="2">
         <v>1.62</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A305" s="2">
         <v>1.58</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A306" s="2">
         <v>1.48</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A307" s="2">
         <v>1.99</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A308" s="2">
         <v>1.77</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A309" s="2">
         <v>1.69</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A310" s="2">
         <v>1.4</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A311" s="2">
         <v>1.73</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A312" s="2">
         <v>1.73</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A313" s="2">
         <v>1.66</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A314" s="2">
         <v>1.88</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A315" s="2">
         <v>1.68</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A316" s="2">
         <v>1.31</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A317" s="2">
         <v>1.7</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A318" s="2">
         <v>1.7</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A319" s="2">
         <v>1.66</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A320" s="2">
         <v>1.66</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A321" s="2">
         <v>1.69</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A322" s="2">
         <v>1.68</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A323" s="2">
         <v>1.69</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A324" s="2">
         <v>1.68</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A325" s="2">
         <v>1.68</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A326" s="2">
         <v>1.69</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A327" s="2">
         <v>1.68</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A328" s="2">
         <v>1.69</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A329" s="2">
         <v>1.68</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A330" s="2">
         <v>1.68</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A331" s="2">
         <v>1.68</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A332" s="2">
         <v>1.69</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A333" s="2">
         <v>1.68</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A334" s="2">
         <v>1.69</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A335" s="2">
         <v>1.68</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A336" s="2">
         <v>1.69</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A337" s="2">
         <v>1.69</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A338" s="2">
         <v>1.68</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A339" s="2">
         <v>1.68</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A340" s="2">
         <v>1.69</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A341" s="2">
         <v>1.69</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A342" s="2">
         <v>1.69</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A343" s="2">
         <v>1.69</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A344" s="2">
         <v>1.69</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A345" s="2">
         <v>1.68</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A346" s="2">
         <v>1.69</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A347" s="2">
         <v>1.68</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A348" s="2">
         <v>1.69</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A349" s="2">
         <v>1.7</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A350" s="2">
         <v>1.69</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A351" s="2">
         <v>1.68</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A352" s="2">
         <v>1.68</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A353" s="2">
         <v>1.68</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A354" s="2">
         <v>1.69</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A355" s="2">
         <v>1.69</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A356" s="2">
         <v>1.69</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A357" s="2">
         <v>1.68</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A358" s="2">
         <v>1.69</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A359" s="2">
         <v>1.69</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A360" s="2">
         <v>1.69</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A361" s="2">
         <v>1.68</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A362" s="2">
         <v>1.69</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A363" s="2">
         <v>1.69</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A364" s="2">
         <v>1.68</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A365" s="2">
         <v>1.68</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A366" s="2">
         <v>1.69</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A367" s="2">
         <v>1.68</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A368" s="2">
         <v>1.69</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A369" s="2">
         <v>1.68</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A370" s="2">
         <v>1.69</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A371" s="2">
         <v>1.69</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A372" s="2">
         <v>1.69</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A373" s="2">
         <v>1.69</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A374" s="2">
         <v>1.72</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A375" s="2">
         <v>1.68</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A376" s="2">
         <v>1.73</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A377" s="2">
         <v>1.7</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A378" s="2">
         <v>1.67</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A379" s="2">
         <v>1.75</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A380" s="2">
         <v>1.85</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A381" s="2">
         <v>1.67</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A382" s="2">
         <v>1.73</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A383" s="2">
         <v>1.68</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A384" s="2">
         <v>1.82</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A385" s="2">
         <v>1.69</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A386" s="2">
         <v>1.43</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A387" s="2">
         <v>1.77</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A388" s="2">
         <v>1.63</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A389" s="2">
         <v>1.7</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A390" s="2">
         <v>1.55</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A391" s="2">
         <v>1.6</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A392" s="2">
         <v>1.8</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A393" s="2">
         <v>1.66</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A394" s="2">
         <v>1.81</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A395" s="2">
         <v>1.43</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A396" s="2">
         <v>1.61</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A397" s="2">
         <v>1.43</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A398" s="2">
         <v>1.77</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A399" s="2">
         <v>1.78</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A400" s="2">
         <v>1.61</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A401" s="2">
         <v>1.68</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A402" s="2">
         <v>1.63</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A403" s="2">
         <v>1.64</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A404" s="2">
         <v>1.68</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A405" s="2">
         <v>1.68</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A406" s="2">
         <v>1.68</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A407" s="2">
         <v>1.68</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A408" s="2">
         <v>1.69</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A409" s="2">
         <v>1.68</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A410" s="2">
         <v>1.69</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A411" s="2">
         <v>1.7</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A412" s="2">
         <v>1.69</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A413" s="2">
         <v>1.69</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A414" s="2">
         <v>1.69</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A415" s="2">
         <v>1.69</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A416" s="2">
         <v>1.69</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A417" s="2">
         <v>1.69</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A418" s="2">
         <v>1.68</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A419" s="2">
         <v>1.68</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A420" s="2">
         <v>1.68</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A421" s="2">
         <v>1.68</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A422" s="2">
         <v>1.68</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A423" s="2">
         <v>1.69</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A424" s="2">
         <v>1.69</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A425" s="2">
         <v>1.68</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A426" s="2">
         <v>1.69</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A427" s="2">
         <v>1.69</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A428" s="2">
         <v>1.69</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A429" s="2">
         <v>1.68</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A430" s="2">
         <v>1.69</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A431" s="2">
         <v>1.68</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A432" s="2">
         <v>1.68</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A433" s="2">
         <v>1.69</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A434" s="2">
         <v>1.69</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A435" s="2">
         <v>1.69</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A436" s="2">
         <v>1.69</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A437" s="2">
         <v>1.69</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A438" s="2">
         <v>1.69</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A439" s="2">
         <v>1.69</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A440" s="2">
         <v>1.69</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A441" s="2">
         <v>1.68</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A442" s="2">
         <v>1.68</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A443" s="2">
         <v>1.69</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A444" s="2">
         <v>1.69</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A445" s="2">
         <v>1.68</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A446" s="2">
         <v>1.68</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A447" s="2">
         <v>1.68</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A448" s="2">
         <v>1.68</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A449" s="2">
         <v>1.69</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A450" s="2">
         <v>1.68</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A451" s="2">
         <v>1.68</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A452" s="2">
         <v>1.67</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A453" s="2">
         <v>1.68</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A454" s="2">
         <v>1.63</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A455" s="2">
         <v>1.69</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A456" s="2">
         <v>1.56</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A457" s="2">
         <v>1.68</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A458" s="2">
         <v>1.7</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A459" s="2">
         <v>1.61</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A460" s="2">
         <v>1.76</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A461" s="2">
         <v>1.76</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A462" s="2">
         <v>1.73</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A463" s="2">
         <v>1.64</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A464" s="2">
         <v>1.65</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A465" s="2">
         <v>1.9</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A466" s="2">
         <v>1.57</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A467" s="2">
         <v>1.59</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A468" s="2">
         <v>1.8</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A469" s="2">
         <v>1.73</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A470" s="2">
         <v>1.71</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A471" s="2">
         <v>1.71</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A472" s="2">
         <v>1.7</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A473" s="2">
         <v>1.64</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A474" s="2">
         <v>1.66</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A475" s="2">
         <v>1.69</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A476" s="2">
         <v>1.75</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A477" s="2">
         <v>1.7</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A478" s="2">
         <v>1.71</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A479" s="2">
         <v>1.67</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A480" s="2">
         <v>1.68</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A481" s="2">
         <v>1.66</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A482" s="2">
         <v>1.69</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A483" s="2">
         <v>1.69</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A484" s="2">
         <v>1.7</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A485" s="2">
         <v>1.69</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A486" s="2">
         <v>1.69</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A487" s="2">
         <v>1.68</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A488" s="2">
         <v>1.69</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A489" s="2">
         <v>1.68</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A490" s="2">
         <v>1.68</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A491" s="2">
         <v>1.68</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A492" s="2">
         <v>1.69</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A493" s="2">
         <v>1.68</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A494" s="2">
         <v>1.69</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A495" s="2">
         <v>1.69</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A496" s="2">
         <v>1.69</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A497" s="2">
         <v>1.69</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A498" s="2">
         <v>1.69</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A499" s="2">
         <v>1.68</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A500" s="2">
         <v>1.69</v>
       </c>
@@ -10660,7 +10660,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A501" s="2">
         <v>1.68</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A502" s="2">
         <v>1.69</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A503" s="2">
         <v>1.68</v>
       </c>
@@ -10693,7 +10693,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A504" s="2">
         <v>1.68</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A505" s="2">
         <v>1.69</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A506" s="2">
         <v>1.7</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A507" s="2">
         <v>1.69</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A508" s="2">
         <v>1.69</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A509" s="2">
         <v>1.69</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A510" s="2">
         <v>1.69</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A511" s="2">
         <v>1.68</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A512" s="2">
         <v>1.68</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A513" s="2">
         <v>1.69</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A514" s="2">
         <v>1.69</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A515" s="2">
         <v>1.67</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A516" s="2">
         <v>1.69</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A517" s="2">
         <v>1.69</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A518" s="2">
         <v>1.69</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A519" s="2">
         <v>1.69</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A520" s="2">
         <v>1.69</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A521" s="2">
         <v>1.69</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A522" s="2">
         <v>1.68</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A523" s="2">
         <v>1.69</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A524" s="2">
         <v>1.68</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A525" s="2">
         <v>1.68</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A526" s="2">
         <v>1.68</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A527" s="2">
         <v>1.68</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A528" s="2">
         <v>1.69</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A529" s="2">
         <v>1.69</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A530" s="2">
         <v>1.68</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A531" s="2">
         <v>1.69</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A532" s="2">
         <v>1.69</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A533" s="2">
         <v>1.68</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A534" s="2">
         <v>1.68</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A535" s="2">
         <v>1.69</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A536" s="2">
         <v>1.68</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A537" s="2">
         <v>1.68</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A538" s="2">
         <v>1.68</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A539" s="2">
         <v>1.69</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A540" s="2">
         <v>1.69</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A541" s="2">
         <v>1.7</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A542" s="2">
         <v>1.68</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A543" s="2">
         <v>1.69</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A544" s="2">
         <v>1.69</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A545" s="2">
         <v>1.68</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A546" s="2">
         <v>1.68</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A547" s="2">
         <v>1.68</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A548" s="2">
         <v>1.69</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A549" s="2">
         <v>1.69</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A550" s="2">
         <v>1.68</v>
       </c>
@@ -11210,7 +11210,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A551" s="2">
         <v>1.69</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A552" s="2">
         <v>1.7</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A553" s="2">
         <v>1.7</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A554" s="2">
         <v>1.68</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A555" s="2">
         <v>1.68</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A556" s="2">
         <v>1.68</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A557" s="2">
         <v>1.68</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A558" s="2">
         <v>1.68</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A559" s="2">
         <v>1.68</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A560" s="2">
         <v>1.68</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A561" s="2">
         <v>1.69</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A562" s="2">
         <v>1.68</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A563" s="2">
         <v>1.68</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A564" s="2">
         <v>1.68</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A565" s="2">
         <v>1.68</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A566" s="2">
         <v>1.69</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A567" s="2">
         <v>1.69</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A568" s="2">
         <v>1.69</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A569" s="2">
         <v>1.69</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A570" s="2">
         <v>1.68</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A571" s="2">
         <v>1.69</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A572" s="2">
         <v>1.68</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A573" s="2">
         <v>1.69</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A574" s="2">
         <v>1.69</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A575" s="2">
         <v>1.69</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A576" s="2">
         <v>1.69</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A577" s="2">
         <v>1.68</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A578" s="2">
         <v>1.68</v>
       </c>
@@ -11518,7 +11518,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A579" s="2">
         <v>1.68</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A580" s="2">
         <v>1.69</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A581" s="2">
         <v>1.69</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A582" s="2">
         <v>1.69</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A583" s="2">
         <v>1.69</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A584" s="2">
         <v>1.68</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A585" s="2">
         <v>1.7</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A586" s="2">
         <v>1.69</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A587" s="2">
         <v>1.7</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A588" s="2">
         <v>1.69</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A589" s="2">
         <v>1.69</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A590" s="2">
         <v>1.69</v>
       </c>
@@ -11650,7 +11650,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A591" s="2">
         <v>1.69</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A592" s="2">
         <v>1.69</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A593" s="2">
         <v>1.68</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A594" s="2">
         <v>1.69</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A595" s="2">
         <v>1.68</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A596" s="2">
         <v>1.69</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A597" s="2">
         <v>1.68</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A598" s="2">
         <v>1.68</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A599" s="2">
         <v>1.68</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A600" s="2">
         <v>1.69</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A601" s="2">
         <v>1.69</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A602" s="2">
         <v>1.68</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A603" s="2">
         <v>1.69</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A604" s="2">
         <v>1.69</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A605" s="2">
         <v>1.68</v>
       </c>
@@ -11815,7 +11815,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A606" s="2">
         <v>1.68</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A607" s="2">
         <v>1.69</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A608" s="2">
         <v>1.69</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A609" s="2">
         <v>1.69</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A610" s="2">
         <v>1.68</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A611" s="2">
         <v>1.68</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A612" s="2">
         <v>1.69</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A613" s="2">
         <v>1.68</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A614" s="2">
         <v>1.69</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A615" s="2">
         <v>1.69</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A616" s="2">
         <v>1.69</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A617" s="2">
         <v>1.68</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A618" s="2">
         <v>1.69</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A619" s="2">
         <v>1.7</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A620" s="2">
         <v>1.7</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A621" s="2">
         <v>1.7</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A622" s="2">
         <v>1.69</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A623" s="2">
         <v>1.68</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A624" s="2">
         <v>1.68</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A625" s="2">
         <v>1.68</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A626" s="2">
         <v>1.68</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A627" s="2">
         <v>1.68</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A628" s="2">
         <v>1.69</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A629" s="2">
         <v>1.68</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A630" s="2">
         <v>1.7</v>
       </c>
